--- a/Aggregate Comments in an Excel Workbook v2/Data/Prep Config.xlsx
+++ b/Aggregate Comments in an Excel Workbook v2/Data/Prep Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joltagcom-my.sharepoint.com/personal/uvazquez_joltag_com/Documents/Documentos/UiPath/Aggregate Comments in an Excel Workbook/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuan.nguyen\Desktop\R2G In Progress\Aggregate-Comments-in-a-Excel-Workbook\Aggregate Comments in an Excel Workbook v2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{698D4789-5EA9-4BA9-B2F3-1EEB9C9CDE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D1A29AD-3827-4D19-AEF3-55DE745AF6E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E12D6-F651-41B4-9C01-87C2C0B6B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="2085" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="4" r:id="rId1"/>
@@ -144,18 +144,6 @@
     <t>Boolean flag to determine whether to display final success message at the end of the automation</t>
   </si>
   <si>
-    <t>Aggregate Comments in an Excel Workbook</t>
-  </si>
-  <si>
-    <t>This automation aggregates and summarizes the comments in an Excel workbook. </t>
-  </si>
-  <si>
-    <t>https://uipath.sharepoint.com/:w:/r/sites/OneRobot/_layouts/15/Doc.aspx?sourcedoc=%7B32ACAD03-45BC-4173-A2F6-A16355F59853%7D&amp;file=3.%20User%20Guide.docx&amp;action=default&amp;mobileredirect=true</t>
-  </si>
-  <si>
-    <t>File provided was not an Excel file.</t>
-  </si>
-  <si>
     <t>InvalidFile</t>
   </si>
   <si>
@@ -165,12 +153,6 @@
     <t>NoComments</t>
   </si>
   <si>
-    <t>Folder location did not include any Excel files</t>
-  </si>
-  <si>
-    <t>No comments could be found in Excel file </t>
-  </si>
-  <si>
     <t>This is the message displayed to the user when a File was not a Valid extension</t>
   </si>
   <si>
@@ -180,16 +162,34 @@
     <t>This is the message displayed to the user when no comments were found when a single file was processed</t>
   </si>
   <si>
-    <t>Data\Input\output.xlsx</t>
-  </si>
-  <si>
     <t>Data\Input\AutomationExcel.xlsm</t>
   </si>
   <si>
     <t>AutomationExcel_FilePath</t>
   </si>
   <si>
-    <t>Output_FilePath</t>
+    <t>Aggregate notes in an Excel workbook</t>
+  </si>
+  <si>
+    <t>https://marketplace.uipath.com/listings/aggregate-notes-in-an-excel-workbook</t>
+  </si>
+  <si>
+    <t>This automation aggregates and summarizes the notes in an Excel workbook.</t>
+  </si>
+  <si>
+    <t>The file provided was not an Excel file.</t>
+  </si>
+  <si>
+    <t>The folder provided did not contain any Excel files.</t>
+  </si>
+  <si>
+    <t>No comments could be found in the Excel file.</t>
+  </si>
+  <si>
+    <t>Temp_Folder</t>
+  </si>
+  <si>
+    <t>Data\Input\</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,35 +699,35 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +743,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -826,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>32</v>
@@ -841,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -856,7 +856,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -1876,7 +1876,7 @@
   <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1992,10 +1992,10 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -2003,7 +2003,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
